--- a/src/test/resources/createbookingtestdata.xlsx
+++ b/src/test/resources/createbookingtestdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Intellijrestassured\untitled\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Intellijrestassured\untitled\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855A2629-9486-4CD8-ACA8-EFA49CFAA7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB88EB3-986C-4E79-B774-D7222B859154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -136,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/createbookingtestdata.xlsx
+++ b/src/test/resources/createbookingtestdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Intellijrestassured\untitled\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB88EB3-986C-4E79-B774-D7222B859154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D587B1FA-1B2C-4D2A-A6A0-182C5F9A311F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>firstname</t>
   </si>
@@ -58,14 +59,81 @@
   </si>
   <si>
     <t>Suddala</t>
+  </si>
+  <si>
+    <t>Subbarao</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Buffet</t>
+  </si>
+  <si>
+    <t>89.56f</t>
+  </si>
+  <si>
+    <t>Parimi</t>
+  </si>
+  <si>
+    <t>Putta</t>
+  </si>
+  <si>
+    <t>muvva</t>
+  </si>
+  <si>
+    <t>kommineni</t>
+  </si>
+  <si>
+    <t>gudala</t>
+  </si>
+  <si>
+    <t>shaik</t>
+  </si>
+  <si>
+    <t>guns</t>
+  </si>
+  <si>
+    <t>mitta</t>
+  </si>
+  <si>
+    <t>Venky</t>
+  </si>
+  <si>
+    <t>Siddu</t>
+  </si>
+  <si>
+    <t>Arif</t>
+  </si>
+  <si>
+    <t>Pramod</t>
+  </si>
+  <si>
+    <t>Kamala</t>
+  </si>
+  <si>
+    <t>Malli</t>
+  </si>
+  <si>
+    <t>Nagesh</t>
+  </si>
+  <si>
+    <t>Patchava</t>
+  </si>
+  <si>
+    <t>Siva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -139,6 +207,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,4 +567,280 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FC6C48-57E4-43F8-AA89-4D52C326E49A}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>43831</v>
+      </c>
+      <c r="F2" s="8">
+        <v>43832</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>43833</v>
+      </c>
+      <c r="F3" s="8">
+        <v>43834</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>43835</v>
+      </c>
+      <c r="F4" s="8">
+        <v>43836</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>43837</v>
+      </c>
+      <c r="F5" s="8">
+        <v>43838</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>43839</v>
+      </c>
+      <c r="F6" s="8">
+        <v>43840</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>43841</v>
+      </c>
+      <c r="F7" s="8">
+        <v>43842</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>43843</v>
+      </c>
+      <c r="F8" s="8">
+        <v>43844</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>43845</v>
+      </c>
+      <c r="F9" s="8">
+        <v>43846</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>43847</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43848</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>43849</v>
+      </c>
+      <c r="F11" s="8">
+        <v>43850</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>